--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55122.71755383498</v>
+        <v>52886.60453850048</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571013</v>
+        <v>23845934.64571015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059643</v>
+        <v>9134618.112059634</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4900105.464202619</v>
+        <v>4869395.967166129</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374.0142720497965</v>
+        <v>403.1572050940909</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.96479208594954</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>84.85899356878446</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>406.553567514357</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>214.8159433336649</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>81.85021358836507</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>28.84968802901818</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>401.3388979860635</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D11" t="n">
         <v>424.2958575201043</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>159.582856075998</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>98.67241828702804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>74.06216992684948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>106.0626366504663</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>374.4268935289278</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>343.9407505880628</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>163.7026458850734</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>231.6845987943127</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>383.3590907834184</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>45.91568880648644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>185.5573750678079</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>85.54275136626498</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>62.51533699730416</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.5566921220353</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>22.28534392847715</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2804,13 +2806,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>55.9849657411977</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>45.91568880648644</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>41.28837002808715</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>22.2853439284767</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3041,13 +3043,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>73.9647729438427</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>67.70943904955006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>10.04027365719915</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>153.7786070829299</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>283.3205812729932</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>49.17722654850316</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>183.8700018436696</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>107.1231505265986</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3661,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>116.0434079398612</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3709,10 +3711,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>246.7383550209435</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>141.8554506993349</v>
       </c>
     </row>
     <row r="42">
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022511</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225712</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>111.4200385268271</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,13 +4036,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>46.26926615534656</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1319.391236090724</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.391236090724</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4370,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,34 +4397,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.6598237215927</v>
+        <v>1025.253038995654</v>
       </c>
       <c r="C4" t="n">
-        <v>119.6598237215927</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>119.6598237215927</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,10 +4494,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
         <v>761.8145120199619</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740719</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X4" t="n">
-        <v>347.0794944074844</v>
+        <v>1025.253038995654</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.6598237215927</v>
+        <v>1025.253038995654</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873.1855120707613</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="C5" t="n">
-        <v>873.1855120707613</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="D5" t="n">
-        <v>444.6038378080297</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4568,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4598,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.1855120707613</v>
+        <v>251.3462593216046</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
-        <v>1618.66069040253</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.6507226398521</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>256.5228263338248</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4729,46 +4731,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.6507226398521</v>
+        <v>433.2298803720686</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1291.790603831868</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.790603831868</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D8" t="n">
-        <v>1291.790603831868</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
@@ -4838,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1668.042331061207</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>1263.18687647224</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.790603831868</v>
+        <v>844.044413051551</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.790603831868</v>
+        <v>435.7582893512044</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C11" t="n">
         <v>1318.974446717864</v>
@@ -5045,16 +5047,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5081,10 +5083,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y11" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J12" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L12" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R12" t="n">
         <v>1697.183430080417</v>
@@ -5200,19 +5202,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K13" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>726.9120049407049</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M13" t="n">
-        <v>726.9120049407049</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N13" t="n">
-        <v>1146.964903885608</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O13" t="n">
-        <v>1566.63415311139</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P13" t="n">
         <v>1697.183430080417</v>
@@ -5227,22 +5229,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1535.988625963248</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1257.555625216353</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V13" t="n">
-        <v>970.6001170867833</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W13" t="n">
-        <v>698.5737126730747</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X13" t="n">
-        <v>453.1819580064872</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.7622873205955</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>435.7582893512044</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="C14" t="n">
-        <v>435.7582893512044</v>
+        <v>423.1597219120885</v>
       </c>
       <c r="D14" t="n">
-        <v>435.7582893512044</v>
+        <v>423.1597219120885</v>
       </c>
       <c r="E14" t="n">
-        <v>435.7582893512044</v>
+        <v>423.1597219120885</v>
       </c>
       <c r="F14" t="n">
-        <v>435.7582893512044</v>
+        <v>423.1597219120885</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H14" t="n">
         <v>34.36045797446834</v>
@@ -5312,16 +5314,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>510.5685620045878</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y14" t="n">
-        <v>435.7582893512044</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="15">
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D16" t="n">
         <v>33.94366860160834</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.0738231583921</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C17" t="n">
-        <v>323.0738231583921</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0738231583921</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E17" t="n">
-        <v>323.0738231583921</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5516,22 +5518,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O17" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q17" t="n">
         <v>1528.02936532736</v>
@@ -5546,19 +5548,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U17" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W17" t="n">
-        <v>670.4887227422939</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X17" t="n">
-        <v>323.0738231583921</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y17" t="n">
-        <v>323.0738231583921</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5600,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.5053801183834</v>
+        <v>700.5271480882413</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>535.1709401235207</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G19" t="n">
         <v>33.94366860160834</v>
@@ -5674,22 +5676,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M19" t="n">
-        <v>872.2064493144727</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5698,25 +5700,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T19" t="n">
-        <v>1463.158582813435</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U19" t="n">
-        <v>1184.72558206654</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V19" t="n">
-        <v>897.7700739369707</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W19" t="n">
-        <v>625.7436695232623</v>
+        <v>700.5271480882413</v>
       </c>
       <c r="X19" t="n">
-        <v>625.7436695232623</v>
+        <v>700.5271480882413</v>
       </c>
       <c r="Y19" t="n">
-        <v>398.3239988373705</v>
+        <v>700.5271480882413</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1789.095648603258</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C20" t="n">
-        <v>1350.953175786681</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D20" t="n">
-        <v>915.0433909611256</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194208</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862856</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>2623.681342788512</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y20" t="n">
-        <v>2215.395219088166</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>404.0232146552985</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0232146552985</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>404.0232146552985</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>404.0232146552985</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>404.0232146552985</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.1364226482442</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C22" t="n">
-        <v>749.5747111314691</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D22" t="n">
-        <v>583.6967183329918</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E22" t="n">
-        <v>413.9387145837291</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>237.2316605454853</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>71.64038557131298</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2424.181380009883</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>2145.748379262989</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V22" t="n">
-        <v>1858.792871133419</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W22" t="n">
-        <v>1586.766466719711</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X22" t="n">
-        <v>1341.374712053123</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.955041367231</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.369965159541</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C23" t="n">
-        <v>1351.369965159541</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D23" t="n">
-        <v>915.4601803339856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E23" t="n">
-        <v>481.6854354922808</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F23" t="n">
-        <v>53.81800590148855</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G23" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
         <v>53.40121652862856</v>
@@ -6014,25 +6016,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U23" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V23" t="n">
-        <v>2583.654006869544</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W23" t="n">
-        <v>2178.798552280577</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X23" t="n">
-        <v>1759.656088859888</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y23" t="n">
-        <v>1351.369965159541</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
         <v>53.40121652862856</v>
@@ -6172,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>893.3583100948014</v>
+        <v>1353.185863777702</v>
       </c>
       <c r="C26" t="n">
-        <v>455.2158372782247</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="D26" t="n">
-        <v>455.2158372782247</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E26" t="n">
-        <v>455.2158372782247</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F26" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
         <v>53.40121652862856</v>
@@ -6230,16 +6232,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M26" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N26" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O26" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P26" t="n">
         <v>1954.407975719776</v>
@@ -6257,19 +6259,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U26" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V26" t="n">
-        <v>2048.221573682271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W26" t="n">
-        <v>1643.366119093304</v>
+        <v>2606.914021383646</v>
       </c>
       <c r="X26" t="n">
-        <v>1224.223655672615</v>
+        <v>2187.771557962957</v>
       </c>
       <c r="Y26" t="n">
-        <v>893.3583100948014</v>
+        <v>1779.48543426261</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>900.7186013536161</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1568898368411</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D28" t="n">
-        <v>562.2788970383638</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E28" t="n">
-        <v>392.520893289101</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F28" t="n">
-        <v>215.8138392508572</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G28" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I28" t="n">
         <v>53.40121652862856</v>
@@ -6406,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T28" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U28" t="n">
-        <v>2124.330557968361</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V28" t="n">
-        <v>1837.375049838791</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W28" t="n">
-        <v>1565.348645425083</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.956890758495</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1092.537220072603</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1789.095648603258</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="C29" t="n">
-        <v>1350.953175786681</v>
+        <v>1407.920435605196</v>
       </c>
       <c r="D29" t="n">
-        <v>915.0433909611256</v>
+        <v>972.0106507796399</v>
       </c>
       <c r="E29" t="n">
-        <v>481.2686461194208</v>
+        <v>538.2359059379351</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>110.3684763471428</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I29" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K29" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L29" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M29" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
@@ -6500,13 +6502,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W29" t="n">
-        <v>2623.681342788512</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X29" t="n">
-        <v>2623.681342788512</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y29" t="n">
-        <v>2215.395219088166</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C30" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D30" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E30" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F30" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G30" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J30" t="n">
-        <v>1357.443063079289</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K30" t="n">
-        <v>2012.149109705013</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L30" t="n">
-        <v>2012.149109705013</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M30" t="n">
-        <v>2012.149109705013</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N30" t="n">
-        <v>2012.149109705013</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O30" t="n">
-        <v>2012.149109705013</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P30" t="n">
-        <v>2012.149109705013</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q30" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R30" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S30" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T30" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U30" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V30" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W30" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X30" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y30" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>900.7186013536157</v>
+        <v>1008.286808612828</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1568898368406</v>
+        <v>835.7250970960528</v>
       </c>
       <c r="D31" t="n">
-        <v>562.2788970383633</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E31" t="n">
-        <v>392.5208932891006</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F31" t="n">
-        <v>215.8138392508568</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G31" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I31" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K31" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6643,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T31" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U31" t="n">
-        <v>2124.33055796836</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V31" t="n">
-        <v>1837.375049838791</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W31" t="n">
-        <v>1565.348645425082</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.956890758495</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y31" t="n">
-        <v>1092.537220072603</v>
+        <v>1200.105427331815</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1351.369965159541</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C32" t="n">
-        <v>1351.369965159541</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D32" t="n">
-        <v>915.4601803339856</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E32" t="n">
-        <v>481.6854354922808</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F32" t="n">
-        <v>53.81800590148855</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G32" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H32" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K32" t="n">
-        <v>518.3865980530361</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L32" t="n">
-        <v>1179.226652594814</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M32" t="n">
-        <v>1179.226652594814</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N32" t="n">
-        <v>1840.066707136593</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O32" t="n">
-        <v>1840.066707136593</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P32" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6734,16 +6736,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V32" t="n">
-        <v>2670.060826431428</v>
+        <v>2595.34893456896</v>
       </c>
       <c r="W32" t="n">
-        <v>2265.205371842461</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="X32" t="n">
-        <v>1846.062908421772</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="Y32" t="n">
-        <v>1777.669535644449</v>
+        <v>2190.493479979994</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q33" t="n">
-        <v>1605.602207829152</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R33" t="n">
         <v>1716.640978007438</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.4772326516122</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
         <v>731.3355420887848</v>
@@ -6868,7 +6870,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.522190013251</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1678.133681136787</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1160.715522056491</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>933.2958513705994</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>927.4534741707607</v>
+        <v>919.8279083088576</v>
       </c>
       <c r="C35" t="n">
-        <v>489.311001354184</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="D35" t="n">
-        <v>53.40121652862856</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="E35" t="n">
-        <v>53.40121652862856</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
         <v>53.40121652862856</v>
@@ -6941,13 +6943,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
@@ -6968,19 +6970,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U35" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V35" t="n">
-        <v>2048.221573682271</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W35" t="n">
-        <v>1762.039168356015</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X35" t="n">
-        <v>1762.039168356015</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y35" t="n">
-        <v>1353.753044655668</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="36">
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903.8972536055599</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C37" t="n">
-        <v>731.3355420887848</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D37" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E37" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I37" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K37" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7120,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T37" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U37" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V37" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W37" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X37" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y37" t="n">
-        <v>1095.715872324547</v>
+        <v>1182.133343351119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1353.185863777702</v>
+        <v>1650.775162942109</v>
       </c>
       <c r="C38" t="n">
-        <v>915.0433909611256</v>
+        <v>1212.632690125533</v>
       </c>
       <c r="D38" t="n">
-        <v>915.0433909611256</v>
+        <v>776.7229052999771</v>
       </c>
       <c r="E38" t="n">
-        <v>481.2686461194208</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F38" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I38" t="n">
         <v>53.40121652862856</v>
@@ -7181,19 +7183,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M38" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N38" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O38" t="n">
-        <v>1375.081325612185</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P38" t="n">
-        <v>2035.921380153963</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q38" t="n">
-        <v>2582.420166112558</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7202,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U38" t="n">
-        <v>2180.614450898738</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V38" t="n">
-        <v>2180.614450898738</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W38" t="n">
-        <v>2180.614450898738</v>
+        <v>2478.203750063145</v>
       </c>
       <c r="X38" t="n">
-        <v>1761.471987478049</v>
+        <v>2059.061286642456</v>
       </c>
       <c r="Y38" t="n">
-        <v>1353.185863777702</v>
+        <v>1650.775162942109</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J39" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M39" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N39" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O39" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P39" t="n">
         <v>1058.729261281022</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C40" t="n">
-        <v>741.4772326516122</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D40" t="n">
-        <v>741.4772326516122</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E40" t="n">
         <v>624.2616690759949</v>
@@ -7342,7 +7344,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7357,25 +7359,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S40" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U40" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y40" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1355.320903761553</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C41" t="n">
-        <v>917.1784309449763</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D41" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E41" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F41" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
         <v>53.40121652862856</v>
@@ -7412,13 +7414,13 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N41" t="n">
         <v>632.7278666362198</v>
@@ -7436,25 +7438,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2200.76293766715</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V41" t="n">
-        <v>2200.76293766715</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W41" t="n">
-        <v>2200.76293766715</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X41" t="n">
-        <v>1781.620474246461</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y41" t="n">
-        <v>1781.620474246461</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M42" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N42" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O42" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P42" t="n">
         <v>1058.729261281022</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.4772326516122</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C43" t="n">
-        <v>568.9155211348371</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D43" t="n">
-        <v>403.0375283363599</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E43" t="n">
-        <v>233.2795245870971</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F43" t="n">
-        <v>56.57247054885332</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="H43" t="n">
         <v>53.40121652862856</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.522190013251</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U43" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V43" t="n">
-        <v>1678.133681136787</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W43" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X43" t="n">
-        <v>1160.715522056491</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2958513705994</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.8884439079882</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="C44" t="n">
-        <v>724.8884439079882</v>
+        <v>1752.628823804906</v>
       </c>
       <c r="D44" t="n">
-        <v>724.8884439079882</v>
+        <v>1316.719038979351</v>
       </c>
       <c r="E44" t="n">
-        <v>724.8884439079882</v>
+        <v>882.944294137646</v>
       </c>
       <c r="F44" t="n">
-        <v>724.8884439079882</v>
+        <v>455.0768645468538</v>
       </c>
       <c r="G44" t="n">
-        <v>323.4906125312521</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O44" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P44" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1393.464329137293</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U44" t="n">
-        <v>1134.24202645431</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V44" t="n">
-        <v>771.6250763881362</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W44" t="n">
-        <v>771.6250763881362</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="X44" t="n">
-        <v>724.8884439079882</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.8884439079882</v>
+        <v>2190.771296621483</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539589</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.00182921349</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>940.4401176967148</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>774.5621248982375</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8041211489747</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
-        <v>68.8461756808652</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>343.6046302520008</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>761.8145120199619</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1516.524240083786</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>1516.524240083786</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>1516.524240083786</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>1229.568731954216</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>1229.568731954216</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>1229.568731954216</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>1229.568731954216</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,13 +8142,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8216,19 +8218,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>79.31589866453214</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8377,22 +8379,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>312.4013251831016</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,17 +8452,17 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
@@ -8468,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8693,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,7 +8707,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q12" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,13 +8850,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
         <v>424.2958575201044</v>
@@ -8863,7 +8865,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>131.8679565343714</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9246,7 +9248,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9322,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>585.1784344521124</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9559,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9878,11 +9880,11 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="M26" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
@@ -9890,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10048,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>667.515206607857</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10279,7 +10281,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>667.515206607857</v>
@@ -10358,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10513,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10589,7 +10591,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>667.515206607857</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10829,22 +10831,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078567</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -10987,7 +10989,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10999,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>667.515206607857</v>
@@ -11139,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11236,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11461,10 +11463,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.02230273026214</v>
+        <v>18.87936968596779</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22565,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22707,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>86.87130231565777</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.20143014298566</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22787,10 +22789,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>22.88342987893071</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22799,10 +22801,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>71.42290967755099</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,10 +22840,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>82.08514863606554</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.8773468473951</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23027,10 +23029,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>330.1410925364935</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13.6121408004189</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23258,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D11" t="n">
         <v>7.254829457195569</v>
@@ -23321,7 +23323,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>40.52414525755449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23467,7 +23469,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>83.83779588133126</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23507,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.7114347759407</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>330.1410925364936</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>58.15657622002627</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -23732,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>55.01010386435991</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23786,16 +23788,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>71.01028819841957</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7.133448516533917</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>11.73605316301658</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>50.40195730499255</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>64.77345775114105</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>236.4791997122508</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>273.4480291992468</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>338.2915630457728</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>76.64657034130784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>341.398887321771</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>354.8912112365906</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>122.9308428424054</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.6500182959539</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,16 +24976,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>285.026007621669</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>336.4938234137931</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>160.7958207444082</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>268.2579676971288</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25172,7 +25174,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,16 +25210,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>117.4863187700838</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>140.7232059832941</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>72.7600778124837</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>293.6837495164784</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>52.01701577190894</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.891724635209812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>262.3478117640082</v>
       </c>
     </row>
     <row r="42">
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>285.9638145361417</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>368.6817726311359</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354718.9255253644</v>
+        <v>354718.9255253642</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354718.9255253644</v>
+        <v>354718.9255253642</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>354718.9255253644</v>
+        <v>354718.9255253643</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354718.9255253644</v>
+        <v>354718.9255253643</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354718.9255253643</v>
+        <v>354718.9255253642</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499003.7282708471</v>
+        <v>354718.9255253644</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499003.7282708471</v>
+        <v>499003.728270847</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499003.7282708472</v>
+        <v>499003.7282708471</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499003.7282708471</v>
+        <v>499003.728270847</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354718.9255253642</v>
+        <v>499003.7282708471</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72121.40253724411</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="C2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="D2" t="n">
+        <v>72121.4025372441</v>
+      </c>
+      <c r="E2" t="n">
         <v>72121.40253724411</v>
-      </c>
-      <c r="E2" t="n">
-        <v>72121.40253724412</v>
       </c>
       <c r="F2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="G2" t="n">
-        <v>72121.4025372441</v>
+        <v>72121.40253724412</v>
       </c>
       <c r="H2" t="n">
-        <v>101457.3685373715</v>
+        <v>72121.40253724411</v>
       </c>
       <c r="I2" t="n">
         <v>101457.3685373715</v>
@@ -26353,7 +26355,7 @@
         <v>101457.3685373715</v>
       </c>
       <c r="P2" t="n">
-        <v>72121.40253724411</v>
+        <v>101457.3685373715</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64677.13252876426</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26421,10 +26423,10 @@
         <v>6500.075391072234</v>
       </c>
       <c r="D4" t="n">
+        <v>6500.075391072234</v>
+      </c>
+      <c r="E4" t="n">
         <v>6500.075391072235</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6500.075391072234</v>
       </c>
       <c r="F4" t="n">
         <v>6500.075391072234</v>
@@ -26433,7 +26435,7 @@
         <v>6500.075391072234</v>
       </c>
       <c r="H4" t="n">
-        <v>9144.033827297713</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="I4" t="n">
         <v>9144.033827297713</v>
@@ -26442,7 +26444,7 @@
         <v>9144.033827297713</v>
       </c>
       <c r="K4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="L4" t="n">
         <v>9144.033827297713</v>
@@ -26451,13 +26453,13 @@
         <v>9144.033827297713</v>
       </c>
       <c r="N4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="O4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="P4" t="n">
-        <v>6500.075391072234</v>
+        <v>9144.033827297711</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
         <v>40584.9245617577</v>
@@ -26509,7 +26511,7 @@
         <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-135994.7616507604</v>
       </c>
       <c r="C6" t="n">
-        <v>6196.539008949512</v>
+        <v>6196.539008949519</v>
       </c>
       <c r="D6" t="n">
-        <v>6196.539008949527</v>
+        <v>6196.539008949519</v>
       </c>
       <c r="E6" t="n">
-        <v>39824.13900894954</v>
+        <v>39824.13900894953</v>
       </c>
       <c r="F6" t="n">
-        <v>39824.13900894951</v>
+        <v>39824.13900894952</v>
       </c>
       <c r="G6" t="n">
-        <v>39824.13900894951</v>
+        <v>39824.13900894955</v>
       </c>
       <c r="H6" t="n">
-        <v>-13894.35920970133</v>
+        <v>39824.13900894953</v>
       </c>
       <c r="I6" t="n">
-        <v>51728.4101483161</v>
+        <v>-12948.72238044815</v>
       </c>
       <c r="J6" t="n">
-        <v>-59286.0551966741</v>
+        <v>-59286.05519667405</v>
       </c>
       <c r="K6" t="n">
         <v>51728.41014831613</v>
       </c>
       <c r="L6" t="n">
+        <v>51728.41014831611</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51728.4101483161</v>
+      </c>
+      <c r="N6" t="n">
         <v>51728.41014831613</v>
       </c>
-      <c r="M6" t="n">
-        <v>51728.41014831613</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>51728.41014831611</v>
       </c>
-      <c r="O6" t="n">
-        <v>51728.41014831613</v>
-      </c>
       <c r="P6" t="n">
-        <v>39824.13900894954</v>
+        <v>51728.4101483161</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
         <v>667.515206607857</v>
@@ -26829,7 +26831,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>243.2193490877526</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34936,19 +34938,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>79.31589866453214</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,22 +35099,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>312.4013251831016</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,17 +35172,17 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
@@ -35188,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35413,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35425,7 +35427,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q12" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
         <v>424.2958575201044</v>
@@ -35583,7 +35585,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>131.8679565343714</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35966,7 +35968,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36042,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>585.1784344521124</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36200,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158827</v>
@@ -36598,11 +36600,11 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="M26" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
@@ -36610,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36768,7 +36770,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>667.515206607857</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36996,10 +36998,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>667.515206607857</v>
@@ -37078,19 +37080,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37309,7 +37311,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>667.515206607857</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,22 +37551,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078567</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37707,19 +37709,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>667.515206607857</v>
@@ -37859,22 +37861,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37956,7 +37958,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,16 +38183,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52886.60453850048</v>
+        <v>47387.47964742231</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571015</v>
+        <v>23845934.64571014</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059634</v>
+        <v>9134618.112059636</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>403.1572050940909</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>375.9790740437533</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>83.96479208594954</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -873,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>217.7198220050544</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>214.8159433336649</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>287.2956372687311</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>81.85021358836507</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>170.6072317764127</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>374.0142720497965</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>28.84968802901818</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>99.4476420004344</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>158.8196214132816</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>58.01302635684336</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>84.675318503716</v>
       </c>
       <c r="C14" t="n">
         <v>424.2958575201043</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>98.67241828702804</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>106.0626366504663</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>210.7023765773444</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>374.4268935289278</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>388.4114697874283</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>163.7026458850734</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>130.6610594886145</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>383.3590907834184</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>69.97066016908303</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>173.5591556145158</v>
       </c>
       <c r="C22" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>185.5573750678079</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>279.6639416705306</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.990622819018782</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5869679636088</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>62.51533699730416</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>2.008513159454715</v>
       </c>
     </row>
     <row r="29">
@@ -2800,13 +2800,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>55.9849657411977</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>351.698728839523</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>41.28837002808715</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -3006,16 +3006,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3037,19 +3037,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>73.9647729438427</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>107.2759953058721</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>153.7786070829299</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>286.3743221406733</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.17722654850316</v>
+        <v>50.30825486907094</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3508,16 +3508,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>52.06561543395965</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>107.1231505265986</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358922</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3802,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>23.4355180837482</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.8554506993349</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225712</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>111.4200385268271</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>84.16958383386165</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.52534286434</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4372,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1278.040966659728</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>869.7548429593813</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1025.253038995654</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1270.644793662241</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X4" t="n">
-        <v>1025.253038995654</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1025.253038995654</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G5" t="n">
-        <v>251.3462593216046</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
         <v>34.36045797446834</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X5" t="n">
-        <v>251.3462593216046</v>
+        <v>844.044413051551</v>
       </c>
       <c r="Y5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
     </row>
     <row r="6">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>433.2298803720686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
-        <v>256.5228263338248</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4725,19 +4725,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
-        <v>872.2064493144727</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4752,25 +4752,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y7" t="n">
-        <v>433.2298803720686</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.7582893512044</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="C8" t="n">
-        <v>435.7582893512044</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D8" t="n">
-        <v>435.7582893512044</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E8" t="n">
-        <v>435.7582893512044</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
         <v>34.36045797446834</v>
@@ -4813,13 +4813,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4840,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1668.042331061207</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>1263.18687647224</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X8" t="n">
-        <v>844.044413051551</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.7582893512044</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,22 +4886,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="L9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="M9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="O9" t="n">
         <v>739.9048540962709</v>
       </c>
-      <c r="L9" t="n">
-        <v>739.9048540962709</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1697.183430080417</v>
+        <v>1050.816632468548</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.974446717864</v>
+        <v>1050.816632468548</v>
       </c>
       <c r="D11" t="n">
-        <v>890.3927724551322</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="E11" t="n">
         <v>461.8110981924006</v>
@@ -5041,22 +5041,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L11" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M11" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N11" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O11" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5071,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5108,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5123,19 +5123,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H13" t="n">
         <v>33.94366860160834</v>
@@ -5199,52 +5199,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>459.8645301191896</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.0776450162207</v>
+        <v>232.4448594332978</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>851.7413961748201</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="C14" t="n">
-        <v>423.1597219120885</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D14" t="n">
-        <v>423.1597219120885</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E14" t="n">
-        <v>423.1597219120885</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F14" t="n">
-        <v>423.1597219120885</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G14" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1278.040966659728</v>
+        <v>949.4537989923044</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.0776450162207</v>
+        <v>600.9454964518109</v>
       </c>
       <c r="C16" t="n">
-        <v>141.0776450162207</v>
+        <v>428.3837849350358</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
@@ -5463,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>1038.155869837386</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>792.764115170798</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>792.764115170798</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.601755817686</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="D17" t="n">
-        <v>840.020081554954</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="E17" t="n">
-        <v>461.8110981924006</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K17" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L17" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M17" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N17" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5545,22 +5545,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X17" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y17" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.5271480882413</v>
+        <v>730.1226568546163</v>
       </c>
       <c r="C19" t="n">
-        <v>535.1709401235207</v>
+        <v>730.1226568546163</v>
       </c>
       <c r="D19" t="n">
-        <v>369.2929473250434</v>
+        <v>564.244664056139</v>
       </c>
       <c r="E19" t="n">
-        <v>199.5349435757807</v>
+        <v>394.4866603068762</v>
       </c>
       <c r="F19" t="n">
-        <v>199.5349435757807</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
@@ -5676,49 +5676,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>308.7021231727439</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L19" t="n">
-        <v>726.9120049407049</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M19" t="n">
-        <v>726.9120049407049</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N19" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U19" t="n">
-        <v>1259.509060631519</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V19" t="n">
-        <v>972.5535525019498</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W19" t="n">
-        <v>700.5271480882413</v>
+        <v>957.542327540508</v>
       </c>
       <c r="X19" t="n">
-        <v>700.5271480882413</v>
+        <v>957.542327540508</v>
       </c>
       <c r="Y19" t="n">
-        <v>700.5271480882413</v>
+        <v>730.1226568546163</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1278.040966659728</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="C20" t="n">
-        <v>890.8095618279922</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D20" t="n">
-        <v>890.8095618279922</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="E20" t="n">
-        <v>462.2278875652606</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F20" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G20" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K20" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L20" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M20" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N20" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="X20" t="n">
-        <v>1278.040966659728</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="Y20" t="n">
-        <v>1278.040966659728</v>
+        <v>1180.237171683855</v>
       </c>
     </row>
     <row r="21">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C22" t="n">
         <v>33.94366860160834</v>
@@ -5913,22 +5913,22 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
@@ -5937,25 +5937,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V22" t="n">
-        <v>885.9154747824084</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W22" t="n">
-        <v>613.8890703687</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X22" t="n">
-        <v>368.4973157021125</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.0776450162207</v>
+        <v>209.2559470001092</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>743.9292024621484</v>
+        <v>1618.398249477141</v>
       </c>
       <c r="C23" t="n">
-        <v>743.9292024621484</v>
+        <v>1180.255776660564</v>
       </c>
       <c r="D23" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E23" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F23" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G23" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L23" t="n">
-        <v>1293.567921177998</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M23" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N23" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O23" t="n">
         <v>1293.567921177998</v>
@@ -6019,22 +6019,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.11942280532</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739146</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W23" t="n">
-        <v>1339.64701815018</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X23" t="n">
-        <v>1339.64701815018</v>
+        <v>2044.697819962048</v>
       </c>
       <c r="Y23" t="n">
-        <v>931.3608944498332</v>
+        <v>2044.697819962048</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.8972536055599</v>
+        <v>1049.85056207581</v>
       </c>
       <c r="C25" t="n">
-        <v>731.3355420887848</v>
+        <v>877.2888505590353</v>
       </c>
       <c r="D25" t="n">
-        <v>565.4575492903075</v>
+        <v>711.410857760558</v>
       </c>
       <c r="E25" t="n">
-        <v>395.6995455410447</v>
+        <v>541.6528540112952</v>
       </c>
       <c r="F25" t="n">
-        <v>218.9924915028009</v>
+        <v>364.9457999730514</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>199.3545249988791</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>59.45235068925359</v>
       </c>
       <c r="I25" t="n">
         <v>53.40121652862856</v>
@@ -6174,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T25" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U25" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V25" t="n">
-        <v>1840.553702090735</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="W25" t="n">
-        <v>1568.527297677026</v>
+        <v>1714.480606147277</v>
       </c>
       <c r="X25" t="n">
-        <v>1323.135543010439</v>
+        <v>1469.088851480689</v>
       </c>
       <c r="Y25" t="n">
-        <v>1095.715872324547</v>
+        <v>1241.669180794798</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1353.185863777702</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="C26" t="n">
-        <v>915.0433909611256</v>
+        <v>901.5045453336031</v>
       </c>
       <c r="D26" t="n">
-        <v>915.0433909611256</v>
+        <v>901.5045453336031</v>
       </c>
       <c r="E26" t="n">
-        <v>481.2686461194208</v>
+        <v>901.5045453336031</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K26" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L26" t="n">
-        <v>1810.336013065103</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M26" t="n">
-        <v>1954.407975719776</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N26" t="n">
-        <v>1954.407975719776</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O26" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
         <v>1954.407975719776</v>
@@ -6253,25 +6253,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U26" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V26" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W26" t="n">
-        <v>2606.914021383646</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X26" t="n">
-        <v>2187.771557962957</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y26" t="n">
-        <v>1779.48543426261</v>
+        <v>1339.64701815018</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G28" t="n">
         <v>281.9633400635787</v>
@@ -6396,7 +6396,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T28" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U28" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1846.062908421772</v>
+        <v>927.8702635436207</v>
       </c>
       <c r="C29" t="n">
-        <v>1407.920435605196</v>
+        <v>489.7277907270441</v>
       </c>
       <c r="D29" t="n">
-        <v>972.0106507796399</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="E29" t="n">
-        <v>538.2359059379351</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="F29" t="n">
-        <v>110.3684763471428</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G29" t="n">
         <v>53.81800590148855</v>
@@ -6472,10 +6472,10 @@
         <v>632.7278666362198</v>
       </c>
       <c r="M29" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N29" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
@@ -6490,25 +6490,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V29" t="n">
-        <v>2670.060826431428</v>
+        <v>1751.868181553277</v>
       </c>
       <c r="W29" t="n">
-        <v>2265.205371842461</v>
+        <v>1347.01272696431</v>
       </c>
       <c r="X29" t="n">
-        <v>1846.062908421772</v>
+        <v>927.8702635436207</v>
       </c>
       <c r="Y29" t="n">
-        <v>1846.062908421772</v>
+        <v>927.8702635436207</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L30" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M30" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N30" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O30" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P30" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q30" t="n">
         <v>1599.468199913098</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.286808612828</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C31" t="n">
-        <v>835.7250970960528</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D31" t="n">
         <v>794.0196728252577</v>
@@ -6621,13 +6621,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K31" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6654,19 +6654,19 @@
         <v>2264.94001130788</v>
       </c>
       <c r="U31" t="n">
-        <v>1986.507010560985</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V31" t="n">
-        <v>1699.551502431415</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W31" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X31" t="n">
-        <v>1427.525098017707</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1200.105427331815</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2190.493479979994</v>
+        <v>1217.000418100404</v>
       </c>
       <c r="C32" t="n">
-        <v>1752.351007163417</v>
+        <v>778.8579452838278</v>
       </c>
       <c r="D32" t="n">
-        <v>1316.441222337862</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E32" t="n">
-        <v>882.6664774961569</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F32" t="n">
-        <v>454.7990479053647</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I32" t="n">
         <v>53.40121652862856</v>
@@ -6706,46 +6706,46 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L32" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M32" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N32" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>2595.34893456896</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>2190.493479979994</v>
+        <v>1636.142881521094</v>
       </c>
       <c r="X32" t="n">
-        <v>2190.493479979994</v>
+        <v>1217.000418100404</v>
       </c>
       <c r="Y32" t="n">
-        <v>2190.493479979994</v>
+        <v>1217.000418100404</v>
       </c>
     </row>
     <row r="33">
@@ -6885,7 +6885,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
         <v>2405.942210967199</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>919.8279083088576</v>
+        <v>1650.775162942109</v>
       </c>
       <c r="C35" t="n">
-        <v>481.6854354922808</v>
+        <v>1212.632690125533</v>
       </c>
       <c r="D35" t="n">
-        <v>481.6854354922808</v>
+        <v>776.7229052999771</v>
       </c>
       <c r="E35" t="n">
-        <v>481.6854354922808</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F35" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G35" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
         <v>53.81800590148855</v>
@@ -6940,16 +6940,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L35" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M35" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N35" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
@@ -6964,25 +6964,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V35" t="n">
-        <v>2307.443876365254</v>
+        <v>2077.074733427017</v>
       </c>
       <c r="W35" t="n">
-        <v>1902.588421776288</v>
+        <v>2077.074733427017</v>
       </c>
       <c r="X35" t="n">
-        <v>1483.445958355598</v>
+        <v>2077.074733427017</v>
       </c>
       <c r="Y35" t="n">
-        <v>1075.159834655251</v>
+        <v>2077.074733427017</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P36" t="n">
         <v>1058.729261281022</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
@@ -7140,7 +7140,7 @@
         <v>1182.133343351119</v>
       </c>
       <c r="Y37" t="n">
-        <v>1182.133343351119</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1650.775162942109</v>
+        <v>1182.488464651585</v>
       </c>
       <c r="C38" t="n">
-        <v>1212.632690125533</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D38" t="n">
-        <v>776.7229052999771</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E38" t="n">
-        <v>342.9481604582723</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F38" t="n">
-        <v>342.9481604582723</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G38" t="n">
         <v>342.9481604582723</v>
@@ -7174,52 +7174,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M38" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N38" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O38" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2586.408952615265</v>
+        <v>2617.469295690054</v>
       </c>
       <c r="U38" t="n">
-        <v>2586.408952615265</v>
+        <v>2358.246993007072</v>
       </c>
       <c r="V38" t="n">
-        <v>2586.408952615265</v>
+        <v>1995.630042940898</v>
       </c>
       <c r="W38" t="n">
-        <v>2478.203750063145</v>
+        <v>1590.774588351931</v>
       </c>
       <c r="X38" t="n">
-        <v>2059.061286642456</v>
+        <v>1590.774588351931</v>
       </c>
       <c r="Y38" t="n">
-        <v>1650.775162942109</v>
+        <v>1182.488464651585</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P39" t="n">
         <v>1058.729261281022</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C40" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D40" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E40" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F40" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K40" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7356,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T40" t="n">
-        <v>2634.504334502149</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U40" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V40" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W40" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X40" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y40" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1182.071675278725</v>
+        <v>1616.26320949329</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9292024621484</v>
+        <v>1178.120736676713</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9292024621484</v>
+        <v>1178.120736676713</v>
       </c>
       <c r="E41" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I41" t="n">
         <v>53.40121652862856</v>
@@ -7414,19 +7414,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L41" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M41" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362198</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P41" t="n">
         <v>1954.407975719776</v>
@@ -7438,25 +7438,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.11942280532</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739146</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W41" t="n">
-        <v>1744.502472739146</v>
+        <v>2024.549333193636</v>
       </c>
       <c r="X41" t="n">
-        <v>1325.360009318457</v>
+        <v>2024.549333193636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1182.071675278725</v>
+        <v>1616.26320949329</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.1364226482438</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C43" t="n">
-        <v>749.5747111314687</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D43" t="n">
-        <v>583.6967183329914</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E43" t="n">
-        <v>413.9387145837287</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F43" t="n">
-        <v>237.2316605454849</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G43" t="n">
-        <v>71.64038557131252</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H43" t="n">
         <v>53.40121652862856</v>
@@ -7602,13 +7602,13 @@
         <v>2424.181380009883</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.748379262988</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V43" t="n">
         <v>1858.792871133419</v>
       </c>
       <c r="W43" t="n">
-        <v>1586.76646671971</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X43" t="n">
         <v>1341.374712053123</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2190.771296621483</v>
+        <v>1208.958062865641</v>
       </c>
       <c r="C44" t="n">
-        <v>1752.628823804906</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="D44" t="n">
-        <v>1316.719038979351</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="E44" t="n">
-        <v>882.944294137646</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F44" t="n">
-        <v>455.0768645468538</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G44" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
         <v>53.40121652862856</v>
@@ -7651,19 +7651,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
         <v>1954.407975719776</v>
@@ -7675,25 +7675,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V44" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W44" t="n">
-        <v>2190.771296621483</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X44" t="n">
-        <v>2190.771296621483</v>
+        <v>1617.244186565988</v>
       </c>
       <c r="Y44" t="n">
-        <v>2190.771296621483</v>
+        <v>1208.958062865641</v>
       </c>
     </row>
     <row r="45">
@@ -7833,7 +7833,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T46" t="n">
         <v>2405.942210967199</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8385,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8534,25 +8534,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>358.9284720888815</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8771,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K17" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O20" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K20" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L23" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>667.515206607857</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
+      <c r="P26" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M26" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10120,13 +10120,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>667.515206607857</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10281,7 +10281,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10354,25 +10354,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O32" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P32" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O35" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L35" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>667.515206607857</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10755,7 +10755,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N38" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O38" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="P38" t="n">
-        <v>88.52591951401018</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="N41" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O41" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>667.515206607857</v>
-      </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11308,13 +11308,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.87936968596779</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>9.465190568306582</v>
@@ -22555,10 +22555,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>47.60968125113101</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22612,10 +22612,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22707,25 +22707,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>86.87130231565777</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>51.58631836451701</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22798,10 +22798,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>71.42290967755099</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>127.6554015177513</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -22953,13 +22953,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>82.08514863606554</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22992,13 +22992,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>105.041438963013</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>48.02230273026214</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23080,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>330.1410925364935</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23187,19 +23187,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>68.61278171133571</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>270.6173759800062</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23430,10 +23430,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>105.9223358675872</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>337.3612562763427</v>
       </c>
       <c r="C14" t="n">
         <v>9.465190568306582</v>
@@ -23509,13 +23509,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>298.7114347759407</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>58.15657622002627</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -23670,10 +23670,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>58.60376379222703</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23737,22 +23737,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>55.01010386435991</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>8.972383275540437</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23892,7 +23892,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>7.133448516533917</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>44.27892400924682</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>50.40195730499255</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23980,16 +23980,16 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24028,13 +24028,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>330.836239873994</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>16.34127691728142</v>
       </c>
       <c r="C22" t="n">
-        <v>64.77345775114105</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>236.4791997122508</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>135.2870971159518</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>81.78272691405263</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>268.0017873312755</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>338.2915630457728</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>223.1369608195781</v>
       </c>
     </row>
     <row r="29">
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>341.398887321771</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>7.292051725988756</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>122.9308428424054</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>285.026007621669</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>293.5309047372049</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>268.2579676971288</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>72.61645842483847</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.7232059832941</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>165.8009394217321</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>293.6837495164784</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>377.3713819593288</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.3478117640082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>285.9638145361417</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>330.7814549526207</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354718.9255253642</v>
+        <v>354718.9255253644</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354718.9255253642</v>
+        <v>354718.9255253643</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354718.9255253643</v>
+        <v>354718.9255253642</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354718.9255253642</v>
+        <v>354718.9255253643</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354718.9255253644</v>
+        <v>354718.9255253643</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>499003.7282708471</v>
+        <v>499003.728270847</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>499003.7282708471</v>
+        <v>499003.728270847</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499003.728270847</v>
+        <v>499003.7282708471</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499003.7282708471</v>
+        <v>499003.7282708472</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499003.7282708471</v>
+        <v>499003.728270847</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>72121.4025372441</v>
       </c>
       <c r="D2" t="n">
+        <v>72121.40253724411</v>
+      </c>
+      <c r="E2" t="n">
         <v>72121.4025372441</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>72121.40253724408</v>
+      </c>
+      <c r="G2" t="n">
         <v>72121.40253724411</v>
-      </c>
-      <c r="F2" t="n">
-        <v>72121.4025372441</v>
-      </c>
-      <c r="G2" t="n">
-        <v>72121.40253724412</v>
       </c>
       <c r="H2" t="n">
         <v>72121.40253724411</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="C4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="D4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="E4" t="n">
-        <v>6500.075391072235</v>
+        <v>6500.075391072234</v>
       </c>
       <c r="F4" t="n">
         <v>6500.075391072234</v>
@@ -26435,7 +26435,7 @@
         <v>6500.075391072234</v>
       </c>
       <c r="H4" t="n">
-        <v>6500.075391072235</v>
+        <v>6500.075391072234</v>
       </c>
       <c r="I4" t="n">
         <v>9144.033827297713</v>
@@ -26444,7 +26444,7 @@
         <v>9144.033827297713</v>
       </c>
       <c r="K4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="L4" t="n">
         <v>9144.033827297713</v>
@@ -26453,13 +26453,13 @@
         <v>9144.033827297713</v>
       </c>
       <c r="N4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="O4" t="n">
         <v>9144.033827297711</v>
       </c>
       <c r="P4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135994.7616507604</v>
+        <v>-136734.1182626761</v>
       </c>
       <c r="C6" t="n">
-        <v>6196.539008949519</v>
+        <v>5457.182397033873</v>
       </c>
       <c r="D6" t="n">
-        <v>6196.539008949519</v>
+        <v>5457.182397033888</v>
       </c>
       <c r="E6" t="n">
-        <v>39824.13900894953</v>
+        <v>39084.78239703386</v>
       </c>
       <c r="F6" t="n">
-        <v>39824.13900894952</v>
+        <v>39084.78239703386</v>
       </c>
       <c r="G6" t="n">
-        <v>39824.13900894955</v>
+        <v>39084.78239703389</v>
       </c>
       <c r="H6" t="n">
-        <v>39824.13900894953</v>
+        <v>39084.78239703389</v>
       </c>
       <c r="I6" t="n">
-        <v>-12948.72238044815</v>
+        <v>-13443.61260902941</v>
       </c>
       <c r="J6" t="n">
-        <v>-59286.05519667405</v>
+        <v>-59780.94542525533</v>
       </c>
       <c r="K6" t="n">
-        <v>51728.41014831613</v>
+        <v>51233.51991973487</v>
       </c>
       <c r="L6" t="n">
-        <v>51728.41014831611</v>
+        <v>51233.51991973484</v>
       </c>
       <c r="M6" t="n">
-        <v>51728.4101483161</v>
+        <v>51233.51991973486</v>
       </c>
       <c r="N6" t="n">
-        <v>51728.41014831613</v>
+        <v>51233.51991973487</v>
       </c>
       <c r="O6" t="n">
-        <v>51728.41014831611</v>
+        <v>51233.51991973486</v>
       </c>
       <c r="P6" t="n">
-        <v>51728.4101483161</v>
+        <v>51233.51991973484</v>
       </c>
     </row>
   </sheetData>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35105,10 +35105,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35254,25 +35254,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>358.9284720888815</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35491,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K17" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -36053,7 +36053,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -36062,7 +36062,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O20" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K20" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36281,25 +36281,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L23" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>667.515206607857</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
+      <c r="P26" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M26" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36761,16 +36761,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -36840,13 +36840,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>667.515206607857</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36998,10 +36998,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37074,25 +37074,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O32" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P32" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O35" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L35" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>667.515206607857</v>
@@ -37387,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37472,10 +37472,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512943</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N38" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O38" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="P38" t="n">
-        <v>88.52591951401018</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37709,19 +37709,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="N41" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O41" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>667.515206607857</v>
-      </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -38019,7 +38019,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
